--- a/Evento_Podthe.xlsx
+++ b/Evento_Podthe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Tarde</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PODTHE EM AÇÃO – Empreender para Vencer</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Noite</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alex Rodrigues</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t>Manhã</t>
-  </si>
-  <si>
-    <t>10:00</t>
   </si>
   <si>
     <t xml:space="preserve">PODTHE EM AÇÃO – O Diretor como Empreendedor</t>
@@ -135,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,65 +689,65 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Podthe.xlsx
+++ b/Evento_Podthe.xlsx
@@ -42,13 +42,13 @@
     <t xml:space="preserve">PODTHE EM AÇÃO – Empreender para Vencer</t>
   </si>
   <si>
-    <t xml:space="preserve">Emilia Caldas</t>
+    <t xml:space="preserve">Emilia Caldas (Arquiteta e pedagoga da franquia Grau Técnico Teresina Centro - Dirceu)</t>
   </si>
   <si>
     <t>16/09/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucas Castelo Branco</t>
+    <t xml:space="preserve">Lucas Castelo Branco (cantor, prodturo musical e empresário)</t>
   </si>
   <si>
     <t>18/09/2025</t>
@@ -57,7 +57,7 @@
     <t>Noite</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex Rodrigues</t>
+    <t xml:space="preserve">Alex Rodrigues (Tesoureiro da convenção estadual do Piaui, ex-empresário)</t>
   </si>
   <si>
     <t>20/09/2025</t>
@@ -66,10 +66,10 @@
     <t>Manhã</t>
   </si>
   <si>
-    <t xml:space="preserve">PODTHE EM AÇÃO – O Diretor como Empreendedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Caldas</t>
+    <t xml:space="preserve">PODTHE EM AÇÃO – O Diretor como Empreendedor:Mentalidade de dono dentro das organizações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Caldas (Diretor / Franqueado Rede Grau Técnico Teresina e Caxias)</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
     <col bestFit="1" min="1" max="1" width="10.421875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="6.8515625"/>
     <col bestFit="1" min="3" max="3" width="7.28125"/>
-    <col bestFit="1" min="4" max="4" width="44.7109375"/>
+    <col bestFit="1" min="4" max="4" width="86.90234375"/>
     <col bestFit="1" min="5" max="5" width="18.57421875"/>
   </cols>
   <sheetData>
